--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530727.091666188</v>
+        <v>504290.5363562378</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.15099944008764</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>152.8594177564602</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.04589723677579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.864908454252993</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>153.2418220378557</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,10 +1096,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>94.0236838614952</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>71.8131212787539</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,13 +1333,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,28 +1370,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X11" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>144.3759709686855</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>113.950365236779</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,7 +1570,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>123.1892483306066</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>7.814628069999132</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="18">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>10.15822114686786</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>168.333920706505</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>140.1845926095645</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>112.4209419907528</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,55 +2473,55 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.197928092376224</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>89.3681084119596</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>125.450085422222</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>53.4228442325041</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3032,67 +3032,67 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>18.55597406227221</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3162,19 +3162,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>11.00607779298686</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>190.8385894655533</v>
       </c>
     </row>
     <row r="37">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>64.67263725582607</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0943801586797</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="E41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>8.311618392921636</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>8.311618392921693</v>
       </c>
     </row>
     <row r="43">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>57.20971026027903</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4334,43 +4334,43 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V2" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
         <v>16.44142755506243</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8288664974407</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4410,10 +4410,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
         <v>232.5025681519757</v>
@@ -4437,22 +4437,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V3" t="n">
-        <v>547.4845037566762</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W3" t="n">
-        <v>547.4845037566762</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X3" t="n">
-        <v>547.4845037566762</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.0442035175087</v>
+        <v>345.2979091154422</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4507,31 +4507,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
         <v>16.44142755506243</v>
@@ -4586,31 +4586,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>396.792197863116</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499.0663215028962</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="C6" t="n">
-        <v>324.6132922217692</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>24.12981117174006</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4653,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y6" t="n">
-        <v>667.2816585229643</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4744,31 +4744,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="8">
@@ -4811,34 +4811,34 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U8" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W8" t="n">
         <v>16.44142755506243</v>
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>406.8838132313431</v>
+        <v>166.1299698690994</v>
       </c>
       <c r="C9" t="n">
-        <v>406.8838132313431</v>
+        <v>166.1299698690994</v>
       </c>
       <c r="D9" t="n">
-        <v>257.9494035700918</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>257.9494035700918</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>111.4148455969768</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>749.532871410946</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>749.532871410946</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>749.532871410946</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>749.532871410946</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>541.9390891500567</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>541.9390891500567</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>334.3453068891674</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>334.3453068891674</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4981,31 +4981,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5045,10 +5045,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5078,13 +5078,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X11" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="X11" t="n">
-        <v>431.628992076841</v>
-      </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>575.067534196224</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>575.067534196224</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>575.067534196224</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>415.8300791907684</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>269.2955212176533</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
         <v>17.19556020784815</v>
@@ -5121,16 +5121,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5145,25 +5145,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>575.067534196224</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>575.067534196224</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="U12" t="n">
-        <v>575.067534196224</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="V12" t="n">
-        <v>575.067534196224</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="W12" t="n">
-        <v>575.067534196224</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="X12" t="n">
-        <v>575.067534196224</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y12" t="n">
-        <v>575.067534196224</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5218,31 +5218,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5279,16 +5279,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.8105631474831</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="C15" t="n">
-        <v>129.8105631474831</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="D15" t="n">
-        <v>129.8105631474831</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="E15" t="n">
-        <v>129.8105631474831</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="F15" t="n">
-        <v>129.8105631474831</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="G15" t="n">
-        <v>129.8105631474831</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5388,19 +5388,19 @@
         <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V15" t="n">
-        <v>129.8105631474831</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W15" t="n">
-        <v>129.8105631474831</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X15" t="n">
-        <v>129.8105631474831</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y15" t="n">
-        <v>129.8105631474831</v>
+        <v>345.2979091154422</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5692,28 +5692,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>317.2494235330527</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C21" t="n">
-        <v>317.2494235330527</v>
+        <v>178.4763822127447</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>317.2494235330527</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>317.2494235330527</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>317.2494235330527</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X21" t="n">
-        <v>317.2494235330527</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y21" t="n">
-        <v>317.2494235330527</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>332.4649978087242</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C24" t="n">
-        <v>158.0119685275972</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>575.9137744528243</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>575.9137744528243</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>332.4649978087242</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X24" t="n">
-        <v>332.4649978087242</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y24" t="n">
-        <v>332.4649978087242</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>587.3248651012614</v>
+      </c>
+      <c r="C26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>344.6327430815143</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="C27" t="n">
-        <v>170.1797138003873</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="D27" t="n">
-        <v>21.24530413913604</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.3060923407354</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6312,7 +6312,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X27" t="n">
-        <v>720.6083788665362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y27" t="n">
-        <v>512.8480801015824</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="28">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>438.4222916812039</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C30" t="n">
-        <v>438.4222916812039</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D30" t="n">
-        <v>438.4222916812039</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E30" t="n">
-        <v>279.1848366757484</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>681.871068325304</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>438.4222916812039</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>438.4222916812039</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>438.4222916812039</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6637,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,13 +6722,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
         <v>749.627473042513</v>
@@ -6737,13 +6737,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>945.3137473669269</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>771.8964028175958</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>569.7098081763618</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>569.7098081763618</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>569.7098081763618</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W33" t="n">
-        <v>569.7098081763618</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6889,19 +6889,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6968,13 +6968,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V35" t="n">
-        <v>477.1596022224361</v>
-      </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
         <v>477.1596022224361</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.6017161145382</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C36" t="n">
-        <v>380.6017161145382</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D36" t="n">
-        <v>380.6017161145382</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
-        <v>380.6017161145382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>234.0671581414232</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>380.6017161145382</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>380.6017161145382</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="37">
@@ -7111,22 +7111,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>259.0600686093459</v>
+        <v>325.8866438408374</v>
       </c>
       <c r="C39" t="n">
-        <v>84.60703932821886</v>
+        <v>325.8866438408374</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>176.9522341795861</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7257,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y39" t="n">
-        <v>259.0600686093459</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C41" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7412,10 +7412,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7454,7 +7454,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7515,22 +7515,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>813.6758036188573</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>813.6758036188573</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>813.6758036188573</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>813.6758036188573</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>606.0820213579681</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>398.4882390970787</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
         <v>190.8944568361894</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
         <v>224.0352098159517</v>
@@ -7685,10 +7685,10 @@
         <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y44" t="n">
         <v>604.3859801240053</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>175.6788825605179</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>175.6788825605179</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D45" t="n">
-        <v>175.6788825605179</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7731,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>590.8664470822965</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>590.8664470822965</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>590.8664470822965</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>383.2726648214073</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.6788825605179</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7843,7 +7843,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
         <v>16.44142755506243</v>
@@ -7982,10 +7982,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7994,7 +7994,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>151.2801117021122</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8301,16 +8301,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>155.3219763666824</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,13 +8693,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,10 +8936,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,13 +9255,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9732,10 +9732,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,19 +10905,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>258.4602915813506</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>177.8690701461577</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>52.06643139743881</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.67376589340711</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22677,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.6367985405286</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,7 +22793,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>235.8466275750188</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22841,13 +22841,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,13 +22863,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,13 +22878,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>82.53172439716208</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22926,10 +22926,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>52.44087373944865</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23063,25 +23063,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>42.075732182894</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23109,10 +23109,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>43.31983330171543</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>28.34471287388924</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,16 +23157,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,13 +23221,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>201.982606264288</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>246.2319094885102</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972316</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23343,16 +23343,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23385,10 +23385,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>27.30720013515233</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>86.21436345804264</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23397,13 +23397,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23467,7 +23467,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>205.9115976555972</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23501,16 +23501,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23586,16 +23586,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>14.15426883260406</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,10 +23628,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>224.9859590794261</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,10 +23692,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23704,7 +23704,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>205.9115976555972</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,16 +23744,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="18">
@@ -23932,7 +23932,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.5597290184211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24017,13 +24017,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>147.4868593085331</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>57.60746137446978</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>287.2759793369997</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>26.34859104030286</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>113.520440090222</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24348,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24455,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,13 +24488,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,22 +24522,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>156.4471523630247</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>22.86733582453687</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,19 +24731,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24756,31 +24756,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>47.25841356609376</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,16 +24810,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>179.3777429169212</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24920,19 +24920,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,25 +24962,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>81.60186009037092</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25050,19 +25050,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>201.1924361087609</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,10 +25154,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,10 +25166,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>126.3374393702238</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>14.84410631175106</v>
       </c>
     </row>
     <row r="37">
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25366,10 +25366,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25394,7 +25394,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25442,10 +25442,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>82.77242830881268</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>1.550700296721288</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>184.2527743897702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>163.3715527109162</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>197.3710773843827</v>
       </c>
     </row>
     <row r="43">
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>183.6536234539903</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>235.8466275750188</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25944,19 +25944,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>129.0318987702889</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25992,25 +25992,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>168.7316718206958</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457599.1896553945</v>
+        <v>457599.1896553944</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457599.1896553945</v>
+        <v>457599.1896553943</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457599.1896553943</v>
+        <v>457599.1896553944</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.0402310077</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481985.0402310081</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457599.1896553944</v>
+        <v>457599.1896553945</v>
       </c>
     </row>
     <row r="16">
@@ -26323,7 +26323,7 @@
         <v>110430.3492844521</v>
       </c>
       <c r="F2" t="n">
-        <v>110430.3492844521</v>
+        <v>110430.3492844522</v>
       </c>
       <c r="G2" t="n">
         <v>116312.4707719327</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17510.95639697595</v>
+        <v>-20598.09631560392</v>
       </c>
       <c r="C6" t="n">
-        <v>51362.80018471392</v>
+        <v>48275.66026608594</v>
       </c>
       <c r="D6" t="n">
-        <v>51362.80018471392</v>
+        <v>48275.66026608594</v>
       </c>
       <c r="E6" t="n">
-        <v>84990.40018471392</v>
+        <v>81903.2602660859</v>
       </c>
       <c r="F6" t="n">
-        <v>84990.40018471393</v>
+        <v>81903.26026608594</v>
       </c>
       <c r="G6" t="n">
-        <v>78268.90783462646</v>
+        <v>75015.06939302306</v>
       </c>
       <c r="H6" t="n">
-        <v>87997.95080879358</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="I6" t="n">
-        <v>87997.95080879361</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="J6" t="n">
-        <v>34225.43991858413</v>
+        <v>30971.60147698075</v>
       </c>
       <c r="K6" t="n">
-        <v>87997.95080879355</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="L6" t="n">
-        <v>87997.95080879357</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="M6" t="n">
-        <v>87997.95080879357</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="N6" t="n">
-        <v>87997.95080879357</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="O6" t="n">
-        <v>84990.40018471394</v>
+        <v>81903.26026608594</v>
       </c>
       <c r="P6" t="n">
-        <v>84990.40018471393</v>
+        <v>81903.26026608593</v>
       </c>
     </row>
   </sheetData>
@@ -34702,10 +34702,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34714,7 +34714,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -35021,16 +35021,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>12.72573192223796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35656,10 +35656,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35966,7 +35966,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,13 +35975,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O45" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504290.5363562378</v>
+        <v>505074.6822942665</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.8594177564602</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -798,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -975,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>95.16904316421414</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.864908454252993</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1038,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.5178444382804</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1175,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V8" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>71.8131212787539</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>30.65343945508051</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,25 +1375,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>20.17739482476111</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>113.950365236779</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1509,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1613,58 +1615,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1698,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>123.1892483306066</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>96.23000894702329</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1841,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="Y17" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,11 +2080,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2099,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10.15822114686786</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>78.19069652883213</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2278,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V23" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>140.1845926095645</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>23.82307707298864</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>80.33470701582003</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,61 +2566,61 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,10 +2636,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>89.3681084119596</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1.197928092376154</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2807,55 +2809,55 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>125.450085422222</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>18.55597406227229</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3162,19 +3164,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,49 +3195,49 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>45.34573173361399</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.8385894655533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3512,52 +3514,52 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>200.3360962888297</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>6.4387996268104</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0943801586797</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,61 +3669,61 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,13 +3748,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4065,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>9.416193523533005</v>
       </c>
       <c r="G45" t="n">
-        <v>8.311618392921693</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,10 +4115,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4349,28 +4351,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="V2" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="W2" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="W2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X2" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
         <v>16.44142755506243</v>
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.8944568361894</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4413,46 +4415,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>345.2979091154422</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V3" t="n">
-        <v>345.2979091154422</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W3" t="n">
-        <v>345.2979091154422</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X3" t="n">
-        <v>345.2979091154422</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y3" t="n">
-        <v>345.2979091154422</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
         <v>133.2380658808762</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4601,7 +4603,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
         <v>639.2227743377304</v>
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.4989467641607</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C6" t="n">
-        <v>137.4989467641607</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D6" t="n">
-        <v>137.4989467641607</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E6" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>24.12981117174006</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>305.7142837842288</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
         <v>16.44142755506243</v>
@@ -4805,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.1299698690994</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="C9" t="n">
-        <v>166.1299698690994</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,16 +4889,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>749.532871410946</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>749.532871410946</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>749.532871410946</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>749.532871410946</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V9" t="n">
-        <v>541.9390891500567</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="W9" t="n">
-        <v>541.9390891500567</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="X9" t="n">
-        <v>334.3453068891674</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="Y9" t="n">
-        <v>334.3453068891674</v>
+        <v>106.7410566979059</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5045,10 +5047,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5084,7 +5086,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>266.6072216617742</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>266.6072216617742</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>266.6072216617742</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>266.6072216617742</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>127.8763962443898</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5121,16 +5123,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>432.3831247296267</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U12" t="n">
-        <v>432.3831247296267</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V12" t="n">
-        <v>432.3831247296267</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W12" t="n">
-        <v>224.7893424687375</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X12" t="n">
-        <v>224.7893424687375</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.19556020784815</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5279,13 +5281,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>345.2979091154422</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C15" t="n">
-        <v>345.2979091154422</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D15" t="n">
-        <v>345.2979091154422</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E15" t="n">
-        <v>345.2979091154422</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F15" t="n">
-        <v>345.2979091154422</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H15" t="n">
         <v>107.4951893506917</v>
@@ -5361,7 +5363,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
         <v>366.5706756325438</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>724.8693485137042</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>522.6827538724702</v>
       </c>
       <c r="U15" t="n">
-        <v>345.2979091154422</v>
+        <v>315.088971611581</v>
       </c>
       <c r="V15" t="n">
-        <v>345.2979091154422</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="W15" t="n">
-        <v>345.2979091154422</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="X15" t="n">
-        <v>345.2979091154422</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y15" t="n">
-        <v>345.2979091154422</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="16">
@@ -5419,16 +5421,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I16" t="n">
         <v>133.2380658808762</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W17" t="n">
-        <v>812.6742080953335</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X17" t="n">
-        <v>812.6742080953335</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5607,7 +5609,7 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>352.9294114938717</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="C21" t="n">
-        <v>178.4763822127447</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="D21" t="n">
-        <v>29.54197255149339</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="W21" t="n">
-        <v>728.9050472788936</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="X21" t="n">
-        <v>728.9050472788936</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="Y21" t="n">
-        <v>521.1447485139397</v>
+        <v>408.3031853286819</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.9696854242497</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="C24" t="n">
-        <v>168.9696854242497</v>
+        <v>43.34485732535276</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>43.34485732535276</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>43.34485732535276</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>43.34485732535276</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="X24" t="n">
-        <v>310.5702840197694</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.5702840197694</v>
+        <v>217.7978866064798</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>587.3248651012614</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>587.3248651012614</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>587.3248651012614</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>249.0369177581199</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C27" t="n">
-        <v>249.0369177581199</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>249.0369177581199</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>249.0369177581199</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>249.0369177581199</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>110.3060923407354</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6312,7 +6314,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>417.2522547781879</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>417.2522547781879</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y27" t="n">
-        <v>417.2522547781879</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="28">
@@ -6406,7 +6408,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>593.6552238493341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>466.9379658470897</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>38.02455125392211</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>227.1326433157456</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6883,25 +6885,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>501.9060370580465</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7022,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y36" t="n">
-        <v>670.1213740781145</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="37">
@@ -7111,22 +7113,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>325.8866438408374</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C39" t="n">
-        <v>325.8866438408374</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D39" t="n">
-        <v>176.9522341795861</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y39" t="n">
-        <v>325.8866438408374</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C41" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7412,10 +7414,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7518,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.976906990516</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="V42" t="n">
-        <v>406.8838132313431</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W42" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X42" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.8944568361894</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="C45" t="n">
-        <v>24.83700168932677</v>
+        <v>165.4376922146599</v>
       </c>
       <c r="D45" t="n">
-        <v>24.83700168932677</v>
+        <v>165.4376922146599</v>
       </c>
       <c r="E45" t="n">
-        <v>24.83700168932677</v>
+        <v>165.4376922146599</v>
       </c>
       <c r="F45" t="n">
-        <v>24.83700168932677</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="46">
@@ -7843,7 +7845,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
         <v>16.44142755506243</v>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8547,7 +8549,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9255,10 +9257,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10194,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,13 +10433,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
-        <v>258.4602915813506</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,10 +11311,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>144.0674440055713</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>52.06643139743881</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361756</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.67376589340711</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>130.3791503725255</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22686,10 +22688,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22723,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22841,10 +22843,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22863,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>52.27602240042461</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>82.53172439716208</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22926,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1648513390239543</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23008,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>107.6671775926096</v>
       </c>
     </row>
     <row r="8">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23063,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23118,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.34471287388924</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>202.1471476943448</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23236,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>141.2201675643428</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23261,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>246.2319094885102</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>92.05804941173535</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>86.21436345804264</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23397,7 +23399,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>37.6979972587272</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23501,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23586,10 +23588,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>14.15426883260406</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>75.45316215681453</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.8756670037568</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23786,19 +23788,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>179.3857036041843</v>
       </c>
       <c r="Y17" t="n">
-        <v>323.8216709537613</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23987,10 +23989,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>147.4868593085331</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>147.7506855521427</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24166,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
-        <v>287.2759793369997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.34859104030286</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>113.520440090222</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>284.9381847551875</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,13 +24490,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>22.86733582453687</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24585,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>204.5750571111013</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24728,10 +24730,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>47.25841356609376</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,19 +24809,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>249.5361568348004</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>128.8890915023665</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25050,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>201.1924361087609</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>112.299348721787</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25296,10 +25298,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.84410631175106</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25366,10 +25368,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25400,7 +25402,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
-        <v>51.00955661900684</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>141.0062659378283</v>
       </c>
       <c r="E39" t="n">
-        <v>1.550700296721288</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>211.704423496788</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,13 +25636,13 @@
         <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>19.89120263984205</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>197.3710773843827</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>183.6536234539903</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25953,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>135.6530188698509</v>
       </c>
       <c r="G45" t="n">
-        <v>129.0318987702889</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,10 +26003,10 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26083,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457599.1896553943</v>
+        <v>457599.1896553945</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457599.1896553944</v>
+        <v>457599.1896553943</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310077</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457599.1896553945</v>
+        <v>457599.1896553944</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457599.1896553945</v>
+        <v>457599.1896553944</v>
       </c>
     </row>
   </sheetData>
@@ -26323,7 +26325,7 @@
         <v>110430.3492844521</v>
       </c>
       <c r="F2" t="n">
-        <v>110430.3492844522</v>
+        <v>110430.3492844521</v>
       </c>
       <c r="G2" t="n">
         <v>116312.4707719327</v>
@@ -26341,7 +26343,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="L2" t="n">
-        <v>116312.4707719327</v>
+        <v>116312.4707719326</v>
       </c>
       <c r="M2" t="n">
         <v>116312.4707719327</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20598.09631560392</v>
+        <v>-20598.09631560394</v>
       </c>
       <c r="C6" t="n">
-        <v>48275.66026608594</v>
+        <v>48275.66026608593</v>
       </c>
       <c r="D6" t="n">
-        <v>48275.66026608594</v>
+        <v>48275.66026608593</v>
       </c>
       <c r="E6" t="n">
+        <v>81903.26026608588</v>
+      </c>
+      <c r="F6" t="n">
         <v>81903.2602660859</v>
       </c>
-      <c r="F6" t="n">
-        <v>81903.26026608594</v>
-      </c>
       <c r="G6" t="n">
-        <v>75015.06939302306</v>
+        <v>75015.06939302309</v>
       </c>
       <c r="H6" t="n">
         <v>84744.11236719016</v>
       </c>
       <c r="I6" t="n">
-        <v>84744.11236719019</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="J6" t="n">
-        <v>30971.60147698075</v>
+        <v>30971.60147698074</v>
       </c>
       <c r="K6" t="n">
-        <v>84744.11236719016</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="L6" t="n">
-        <v>84744.11236719016</v>
+        <v>84744.11236719013</v>
       </c>
       <c r="M6" t="n">
         <v>84744.11236719019</v>
       </c>
       <c r="N6" t="n">
-        <v>84744.11236719017</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="O6" t="n">
-        <v>81903.26026608594</v>
+        <v>81903.26026608597</v>
       </c>
       <c r="P6" t="n">
         <v>81903.26026608593</v>
@@ -34781,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35267,7 +35269,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35413,13 +35415,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M15" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="M15" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35975,10 +35977,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36127,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36200,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N42" t="n">
-        <v>127.1185794980173</v>
-      </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,10 +38031,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N45" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505074.6822942665</v>
+        <v>400842.1840308232</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="X2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
+        <v>80.86228322859426</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,11 +898,11 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>95.16904316421414</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>205.5178444382804</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>30.65343945508051</v>
-      </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>205.5178444382804</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20.17739482476111</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>12.91814281012254</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -1663,16 +1663,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>96.23000894702329</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>106.3943859394542</v>
+      </c>
+      <c r="X15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2168,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>78.19069652883213</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2256,58 +2256,58 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>23.82307707298864</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>158.5564247359592</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,70 +2475,70 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,22 +2639,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>98.71930360545515</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1.197928092376154</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>162.4417619616647</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,64 +3037,64 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>18.55597406227229</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>45.34573173361399</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3365,7 +3365,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>99.50106091084744</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>6.4387996268104</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>129.1308986796022</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>36.71422784070965</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>180.2735260549796</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>9.416193523533005</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.2418220378557</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4333,10 +4333,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
         <v>469.413761616576</v>
@@ -4357,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4418,43 +4418,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>446.4674385625565</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W3" t="n">
-        <v>238.8736563016672</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X3" t="n">
-        <v>31.27987404077794</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4527,13 +4527,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4573,10 +4573,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4588,28 +4588,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y5" t="n">
         <v>224.0352098159517</v>
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>271.8092291910373</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4652,19 +4652,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4682,16 +4682,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4752,25 +4752,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4807,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4828,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4889,46 +4889,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>142.2888212580996</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M9" t="n">
-        <v>345.7514872519972</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>549.2141532458947</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>106.7410566979059</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>106.7410566979059</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>106.7410566979059</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4983,31 +4983,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C11" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5050,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>441.0602509429012</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C12" t="n">
-        <v>266.6072216617742</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>266.6072216617742</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6072216617742</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>266.6072216617742</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>127.8763962443898</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5126,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5147,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>648.6540332037905</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="V12" t="n">
-        <v>648.6540332037905</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="W12" t="n">
-        <v>648.6540332037905</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="X12" t="n">
-        <v>648.6540332037905</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="Y12" t="n">
-        <v>441.0602509429012</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5238,13 +5238,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E14" t="n">
         <v>16.44142755506243</v>
@@ -5287,10 +5287,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.4951893506917</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C15" t="n">
-        <v>107.4951893506917</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M15" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M15" t="n">
-        <v>366.5706756325438</v>
-      </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>724.8693485137042</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>522.6827538724702</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>315.088971611581</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V15" t="n">
-        <v>107.4951893506917</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W15" t="n">
-        <v>107.4951893506917</v>
+        <v>541.1849564972711</v>
       </c>
       <c r="X15" t="n">
-        <v>107.4951893506917</v>
+        <v>333.5911742363817</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.4951893506917</v>
+        <v>333.5911742363817</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5472,16 +5472,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V17" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W17" t="n">
-        <v>223.6192102101089</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>408.3031853286819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>408.3031853286819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>408.3031853286819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>408.3031853286819</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>408.3031853286819</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>408.3031853286819</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>408.3031853286819</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>408.3031853286819</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
         <v>19.28114311021272</v>
@@ -5955,7 +5955,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>262.7299197543128</v>
@@ -6028,13 +6028,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>217.7978866064798</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C24" t="n">
-        <v>43.34485732535276</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D24" t="n">
-        <v>43.34485732535276</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E24" t="n">
-        <v>43.34485732535276</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>43.34485732535276</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>461.2466632505798</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>461.2466632505798</v>
+        <v>630.4818061775079</v>
       </c>
       <c r="W24" t="n">
-        <v>217.7978866064798</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="X24" t="n">
-        <v>217.7978866064798</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="Y24" t="n">
-        <v>217.7978866064798</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>343.4227147053767</v>
+        <v>696.1253502022297</v>
       </c>
       <c r="C27" t="n">
-        <v>168.9696854242497</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>864.3406872222977</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>864.3406872222977</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>864.3406872222977</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>864.3406872222977</v>
       </c>
       <c r="X27" t="n">
-        <v>719.3983504903987</v>
+        <v>864.3406872222977</v>
       </c>
       <c r="Y27" t="n">
-        <v>511.6380517254448</v>
+        <v>864.3406872222977</v>
       </c>
     </row>
     <row r="28">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6548,40 +6548,40 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V30" t="n">
-        <v>125.0774898247174</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
         <v>19.28114311021272</v>
@@ -6639,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>962.2293816994886</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C32" t="n">
-        <v>962.2293816994886</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D32" t="n">
-        <v>962.2293816994886</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E32" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>962.2293816994886</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>962.2293816994886</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W32" t="n">
-        <v>962.2293816994886</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>962.2293816994886</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y32" t="n">
-        <v>962.2293816994886</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>212.4775805350491</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C33" t="n">
-        <v>38.02455125392211</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y33" t="n">
-        <v>380.6929175551172</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>554.0190606638694</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="C36" t="n">
-        <v>554.0190606638694</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D36" t="n">
-        <v>554.0190606638694</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E36" t="n">
-        <v>508.2152912359765</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7052,16 +7052,16 @@
         <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>661.3644387372331</v>
       </c>
       <c r="W36" t="n">
-        <v>761.8705608694022</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="X36" t="n">
-        <v>554.0190606638694</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="Y36" t="n">
-        <v>554.0190606638694</v>
+        <v>417.9156620931329</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7113,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7207,16 +7207,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
         <v>506.1786963984129</v>
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>360.2295980564601</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>833.6219043191188</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>605.3982860555079</v>
       </c>
       <c r="V39" t="n">
-        <v>360.2295980564601</v>
+        <v>605.3982860555079</v>
       </c>
       <c r="W39" t="n">
-        <v>360.2295980564601</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X39" t="n">
-        <v>360.2295980564601</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y39" t="n">
-        <v>360.2295980564601</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="40">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7453,10 +7453,10 @@
         <v>811.9797623848946</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.19556020784815</v>
+        <v>369.7987346043636</v>
       </c>
       <c r="C42" t="n">
-        <v>17.19556020784815</v>
+        <v>369.7987346043636</v>
       </c>
       <c r="D42" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E42" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I42" t="n">
         <v>17.19556020784815</v>
@@ -7493,49 +7493,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>784.9862991261422</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>784.9862991261422</v>
       </c>
       <c r="T42" t="n">
-        <v>639.976906990516</v>
+        <v>784.9862991261422</v>
       </c>
       <c r="U42" t="n">
-        <v>432.3831247296267</v>
+        <v>784.9862991261422</v>
       </c>
       <c r="V42" t="n">
-        <v>224.7893424687375</v>
+        <v>577.3925168652529</v>
       </c>
       <c r="W42" t="n">
-        <v>17.19556020784815</v>
+        <v>369.7987346043636</v>
       </c>
       <c r="X42" t="n">
-        <v>17.19556020784815</v>
+        <v>369.7987346043636</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.19556020784815</v>
+        <v>369.7987346043636</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.8907214957869</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C45" t="n">
-        <v>165.4376922146599</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D45" t="n">
-        <v>165.4376922146599</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E45" t="n">
-        <v>165.4376922146599</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7736,43 +7736,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.8907214957869</v>
+        <v>667.2816585229643</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8066,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>139.0491612396719</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8552,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,19 +11384,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361756</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="3">
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>130.3791503725255</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>124.9107019748832</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>156.7228403034423</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>52.27602240042461</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22922,13 +22922,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1648513390239543</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>107.6671775926096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23035,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23068,10 +23068,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>202.1471476943448</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>141.2201675643428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>176.4125256339814</v>
@@ -23275,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>330.2637912448367</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>92.05804941173535</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>213.0232392708523</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>37.6979972587272</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>350.7793706321741</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23594,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>75.45316215681453</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>145.3005972214654</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.8756670037568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23791,13 +23791,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>179.3857036041843</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23946,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,28 +23971,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24056,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>147.7506855521427</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24144,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24287,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>113.520440090222</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,10 +24341,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>74.24416241346606</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24490,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24499,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24527,22 +24527,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>101.4454250893665</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24584,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>204.5750571111013</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>361.5500862927562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.241409142173154</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24879,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>249.5361568348004</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>128.8890915023665</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>128.5023733906031</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,19 +25046,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25213,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>112.299348721787</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25292,13 +25292,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>133.2995262385778</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25447,7 +25447,7 @@
         <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>141.0062659378283</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>71.03383001521937</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>211.704423496788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>256.2226087030549</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25712,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25724,10 +25724,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>63.44360631193348</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>19.89120263984205</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>234.2826201338976</v>
+        <v>244.2733193484424</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,10 +25918,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>135.6530188698509</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>46.92290665696589</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457599.1896553945</v>
+        <v>457599.1896553944</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457599.1896553944</v>
+        <v>457599.1896553945</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.0402310077</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.0402310079</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310079</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.0402310079</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457599.1896553944</v>
+        <v>457599.1896553945</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>110430.3492844521</v>
       </c>
       <c r="D2" t="n">
-        <v>110430.3492844521</v>
+        <v>110430.3492844522</v>
       </c>
       <c r="E2" t="n">
         <v>110430.3492844521</v>
@@ -26343,7 +26343,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="L2" t="n">
-        <v>116312.4707719326</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="M2" t="n">
         <v>116312.4707719327</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20598.09631560394</v>
+        <v>-33236.25847046443</v>
       </c>
       <c r="C6" t="n">
-        <v>48275.66026608593</v>
+        <v>35637.49811122542</v>
       </c>
       <c r="D6" t="n">
-        <v>48275.66026608593</v>
+        <v>35637.49811122544</v>
       </c>
       <c r="E6" t="n">
-        <v>81903.26026608588</v>
+        <v>69265.09811122542</v>
       </c>
       <c r="F6" t="n">
-        <v>81903.2602660859</v>
+        <v>69265.09811122542</v>
       </c>
       <c r="G6" t="n">
-        <v>75015.06939302309</v>
+        <v>62797.05877298261</v>
       </c>
       <c r="H6" t="n">
-        <v>84744.11236719016</v>
+        <v>72526.1017471497</v>
       </c>
       <c r="I6" t="n">
-        <v>84744.11236719017</v>
+        <v>72526.10174714969</v>
       </c>
       <c r="J6" t="n">
-        <v>30971.60147698074</v>
+        <v>18753.59085694028</v>
       </c>
       <c r="K6" t="n">
-        <v>84744.11236719017</v>
+        <v>72526.10174714969</v>
       </c>
       <c r="L6" t="n">
-        <v>84744.11236719013</v>
+        <v>72526.1017471497</v>
       </c>
       <c r="M6" t="n">
-        <v>84744.11236719019</v>
+        <v>72526.1017471497</v>
       </c>
       <c r="N6" t="n">
-        <v>84744.11236719016</v>
+        <v>72526.10174714969</v>
       </c>
       <c r="O6" t="n">
-        <v>81903.26026608597</v>
+        <v>69265.09811122545</v>
       </c>
       <c r="P6" t="n">
-        <v>81903.26026608593</v>
+        <v>69265.09811122541</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34786,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M6" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.4947814597977008</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4947814597977008</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O15" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36214,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36916,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>161.1784674257276</v>
-      </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
